--- a/tools/music/notes.xlsx
+++ b/tools/music/notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harrington\Box\Retro\Aquarius\music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\AqOS DEV\aquarius-emu\tools\music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D2E50C-66DC-4FFC-8FC3-12C828E587BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541DA210-EB6E-4A4A-BB85-511B76CCD8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="1230" windowWidth="17970" windowHeight="18495" xr2:uid="{A373D169-8244-4FB0-A60B-4709154B2D2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A373D169-8244-4FB0-A60B-4709154B2D2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -415,13 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -524,11 +523,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,8 +848,8 @@
   </sheetPr>
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,16 +884,16 @@
         <v>16.350000000000001</v>
       </c>
       <c r="C2" s="1">
-        <f>ROUND(1118610/(16*B2),0)</f>
-        <v>4276</v>
+        <f>ROUND((7159090/4/16/B2),0)</f>
+        <v>6842</v>
       </c>
       <c r="D2" s="1">
-        <f>C2-(256*E2)</f>
-        <v>180</v>
+        <f t="shared" ref="D2:D33" si="0">C2-(256*E2)</f>
+        <v>186</v>
       </c>
       <c r="E2" s="1">
         <f>INT(C2/256)</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="3"/>
@@ -906,16 +906,16 @@
         <v>17.32</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C66" si="0">ROUND(1118610/(16*B3),0)</f>
-        <v>4037</v>
+        <f t="shared" ref="C3:C66" si="1">ROUND((7159090/4/16/B3),0)</f>
+        <v>6458</v>
       </c>
       <c r="D3" s="1">
-        <f>C3-(256*E3)</f>
-        <v>197</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E66" si="1">INT(C3/256)</f>
-        <v>15</v>
+        <f t="shared" ref="E3:E66" si="2">INT(C3/256)</f>
+        <v>25</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>4</v>
@@ -930,16 +930,16 @@
         <v>18.350000000000001</v>
       </c>
       <c r="C4" s="1">
+        <f t="shared" si="1"/>
+        <v>6096</v>
+      </c>
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>3810</v>
-      </c>
-      <c r="D4" s="1">
-        <f>C4-(256*E4)</f>
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="5"/>
@@ -952,16 +952,16 @@
         <v>19.45</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>5751</v>
+      </c>
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>3595</v>
-      </c>
-      <c r="D5" s="1">
-        <f>C5-(256*E5)</f>
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>4</v>
@@ -976,16 +976,16 @@
         <v>20.6</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>5430</v>
+      </c>
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>3394</v>
-      </c>
-      <c r="D6" s="1">
-        <f>C6-(256*E6)</f>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="6"/>
@@ -998,16 +998,16 @@
         <v>21.83</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>5124</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>3203</v>
-      </c>
-      <c r="D7" s="1">
-        <f>C7-(256*E7)</f>
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="3"/>
@@ -1020,16 +1020,16 @@
         <v>23.12</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>4838</v>
+      </c>
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>3024</v>
-      </c>
-      <c r="D8" s="1">
-        <f>C8-(256*E8)</f>
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>4</v>
@@ -1044,16 +1044,16 @@
         <v>24.5</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>4566</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>2854</v>
-      </c>
-      <c r="D9" s="1">
-        <f>C9-(256*E9)</f>
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="5"/>
@@ -1066,16 +1066,16 @@
         <v>25.96</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>4309</v>
+      </c>
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>2693</v>
-      </c>
-      <c r="D10" s="1">
-        <f>C10-(256*E10)</f>
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>4</v>
@@ -1090,16 +1090,16 @@
         <v>27.5</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>4068</v>
+      </c>
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>2542</v>
-      </c>
-      <c r="D11" s="1">
-        <f>C11-(256*E11)</f>
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="5"/>
@@ -1112,16 +1112,16 @@
         <v>29.14</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>3839</v>
+      </c>
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>2399</v>
-      </c>
-      <c r="D12" s="1">
-        <f>C12-(256*E12)</f>
-        <v>95</v>
+        <v>255</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>4</v>
@@ -1129,67 +1129,67 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>30.87</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>3624</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>2265</v>
-      </c>
-      <c r="D13" s="1">
-        <f>C13-(256*E13)</f>
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>32.700000000000003</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>3421</v>
+      </c>
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>2138</v>
-      </c>
-      <c r="D14" s="1">
-        <f>C14-(256*E14)</f>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>34.65</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>3228</v>
+      </c>
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>2018</v>
-      </c>
-      <c r="D15" s="1">
-        <f>C15-(256*E15)</f>
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>4</v>
@@ -1197,23 +1197,23 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>36.71</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>3047</v>
+      </c>
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>1904</v>
-      </c>
-      <c r="D16" s="1">
-        <f>C16-(256*E16)</f>
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="5"/>
@@ -1226,16 +1226,16 @@
         <v>38.89</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>2876</v>
+      </c>
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>1798</v>
-      </c>
-      <c r="D17" s="1">
-        <f>C17-(256*E17)</f>
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>4</v>
@@ -1250,16 +1250,16 @@
         <v>41.2</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>2715</v>
+      </c>
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>1697</v>
-      </c>
-      <c r="D18" s="1">
-        <f>C18-(256*E18)</f>
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="6"/>
@@ -1272,16 +1272,16 @@
         <v>43.65</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>2563</v>
+      </c>
+      <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>1602</v>
-      </c>
-      <c r="D19" s="1">
-        <f>C19-(256*E19)</f>
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="3"/>
@@ -1294,16 +1294,16 @@
         <v>46.25</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="1"/>
+        <v>2419</v>
+      </c>
+      <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>1512</v>
-      </c>
-      <c r="D20" s="1">
-        <f>C20-(256*E20)</f>
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>4</v>
@@ -1318,16 +1318,16 @@
         <v>49</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" si="1"/>
+        <v>2283</v>
+      </c>
+      <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>1427</v>
-      </c>
-      <c r="D21" s="1">
-        <f>C21-(256*E21)</f>
-        <v>147</v>
+        <v>235</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="5"/>
@@ -1340,16 +1340,16 @@
         <v>51.91</v>
       </c>
       <c r="C22" s="1">
+        <f t="shared" si="1"/>
+        <v>2155</v>
+      </c>
+      <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>1347</v>
-      </c>
-      <c r="D22" s="1">
-        <f>C22-(256*E22)</f>
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>4</v>
@@ -1364,16 +1364,16 @@
         <v>55</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" si="1"/>
+        <v>2034</v>
+      </c>
+      <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>1271</v>
-      </c>
-      <c r="D23" s="1">
-        <f>C23-(256*E23)</f>
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="5"/>
@@ -1386,16 +1386,16 @@
         <v>58.27</v>
       </c>
       <c r="C24" s="1">
+        <f t="shared" si="1"/>
+        <v>1920</v>
+      </c>
+      <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="D24" s="1">
-        <f>C24-(256*E24)</f>
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>4</v>
@@ -1410,16 +1410,16 @@
         <v>61.74</v>
       </c>
       <c r="C25" s="1">
+        <f t="shared" si="1"/>
+        <v>1812</v>
+      </c>
+      <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>1132</v>
-      </c>
-      <c r="D25" s="1">
-        <f>C25-(256*E25)</f>
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="6"/>
@@ -1432,20 +1432,20 @@
         <v>65.41</v>
       </c>
       <c r="C26" s="1">
+        <f t="shared" si="1"/>
+        <v>1710</v>
+      </c>
+      <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>1069</v>
-      </c>
-      <c r="D26" s="1">
-        <f>C26-(256*E26)</f>
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="13"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1455,16 +1455,16 @@
         <v>69.3</v>
       </c>
       <c r="C27" s="1">
+        <f t="shared" si="1"/>
+        <v>1614</v>
+      </c>
+      <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>1009</v>
-      </c>
-      <c r="D27" s="1">
-        <f>C27-(256*E27)</f>
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>4</v>
@@ -1479,16 +1479,16 @@
         <v>73.42</v>
       </c>
       <c r="C28" s="1">
+        <f t="shared" si="1"/>
+        <v>1524</v>
+      </c>
+      <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>952</v>
-      </c>
-      <c r="D28" s="1">
-        <f>C28-(256*E28)</f>
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="5"/>
@@ -1501,16 +1501,16 @@
         <v>77.78</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" si="1"/>
+        <v>1438</v>
+      </c>
+      <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>899</v>
-      </c>
-      <c r="D29" s="1">
-        <f>C29-(256*E29)</f>
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>4</v>
@@ -1525,20 +1525,20 @@
         <v>82.41</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="1"/>
+        <v>1357</v>
+      </c>
+      <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>848</v>
-      </c>
-      <c r="D30" s="1">
-        <f>C30-(256*E30)</f>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="13"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -1548,16 +1548,16 @@
         <v>87.31</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="1"/>
+        <v>1281</v>
+      </c>
+      <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>801</v>
-      </c>
-      <c r="D31" s="1">
-        <f>C31-(256*E31)</f>
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="3"/>
@@ -1570,16 +1570,16 @@
         <v>92.5</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="1"/>
+        <v>1209</v>
+      </c>
+      <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>756</v>
-      </c>
-      <c r="D32" s="1">
-        <f>C32-(256*E32)</f>
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>4</v>
@@ -1594,20 +1594,20 @@
         <v>98</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="1"/>
+        <v>1141</v>
+      </c>
+      <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>713</v>
-      </c>
-      <c r="D33" s="1">
-        <f>C33-(256*E33)</f>
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="13"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1617,16 +1617,16 @@
         <v>103.83</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="0"/>
-        <v>673</v>
+        <f t="shared" si="1"/>
+        <v>1077</v>
       </c>
       <c r="D34" s="1">
-        <f>C34-(256*E34)</f>
-        <v>161</v>
+        <f t="shared" ref="D34:D65" si="3">C34-(256*E34)</f>
+        <v>53</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>4</v>
@@ -1641,20 +1641,20 @@
         <v>110</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="0"/>
-        <v>636</v>
+        <f t="shared" si="1"/>
+        <v>1017</v>
       </c>
       <c r="D35" s="1">
-        <f>C35-(256*E35)</f>
-        <v>124</v>
+        <f t="shared" si="3"/>
+        <v>249</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="5"/>
-      <c r="I35" s="11"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -1664,16 +1664,16 @@
         <v>116.54</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="0"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>960</v>
       </c>
       <c r="D36" s="1">
-        <f>C36-(256*E36)</f>
-        <v>88</v>
+        <f t="shared" si="3"/>
+        <v>192</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>4</v>
@@ -1688,16 +1688,16 @@
         <v>123.47</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="0"/>
-        <v>566</v>
+        <f t="shared" si="1"/>
+        <v>906</v>
       </c>
       <c r="D37" s="1">
-        <f>C37-(256*E37)</f>
-        <v>54</v>
+        <f t="shared" si="3"/>
+        <v>138</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="6"/>
@@ -1710,19 +1710,20 @@
         <v>130.81</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="0"/>
-        <v>534</v>
+        <f t="shared" si="1"/>
+        <v>855</v>
       </c>
       <c r="D38" s="1">
-        <f>C38-(256*E38)</f>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>87</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="3"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -1732,16 +1733,16 @@
         <v>138.59</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="0"/>
-        <v>504</v>
+        <f t="shared" si="1"/>
+        <v>807</v>
       </c>
       <c r="D39" s="1">
-        <f>C39-(256*E39)</f>
-        <v>248</v>
+        <f t="shared" si="3"/>
+        <v>39</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>4</v>
@@ -1756,16 +1757,16 @@
         <v>146.83000000000001</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="0"/>
-        <v>476</v>
+        <f t="shared" si="1"/>
+        <v>762</v>
       </c>
       <c r="D40" s="1">
-        <f>C40-(256*E40)</f>
-        <v>220</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="5"/>
@@ -1778,16 +1779,16 @@
         <v>155.56</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="0"/>
-        <v>449</v>
+        <f t="shared" si="1"/>
+        <v>719</v>
       </c>
       <c r="D41" s="1">
-        <f>C41-(256*E41)</f>
-        <v>193</v>
+        <f t="shared" si="3"/>
+        <v>207</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>4</v>
@@ -1802,19 +1803,20 @@
         <v>164.81</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="0"/>
-        <v>424</v>
+        <f t="shared" si="1"/>
+        <v>679</v>
       </c>
       <c r="D42" s="1">
-        <f>C42-(256*E42)</f>
-        <v>168</v>
+        <f t="shared" si="3"/>
+        <v>167</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="6"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1824,16 +1826,16 @@
         <v>174.61</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <f t="shared" si="1"/>
+        <v>641</v>
       </c>
       <c r="D43" s="1">
-        <f>C43-(256*E43)</f>
-        <v>144</v>
+        <f t="shared" si="3"/>
+        <v>129</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="3"/>
@@ -1846,16 +1848,16 @@
         <v>185</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="0"/>
-        <v>378</v>
+        <f t="shared" si="1"/>
+        <v>605</v>
       </c>
       <c r="D44" s="1">
-        <f>C44-(256*E44)</f>
-        <v>122</v>
+        <f t="shared" si="3"/>
+        <v>93</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>4</v>
@@ -1870,19 +1872,20 @@
         <v>196</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="0"/>
-        <v>357</v>
+        <f t="shared" si="1"/>
+        <v>571</v>
       </c>
       <c r="D45" s="1">
-        <f>C45-(256*E45)</f>
-        <v>101</v>
+        <f t="shared" si="3"/>
+        <v>59</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="5"/>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -1892,16 +1895,16 @@
         <v>207.65</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="0"/>
-        <v>337</v>
+        <f t="shared" si="1"/>
+        <v>539</v>
       </c>
       <c r="D46" s="1">
-        <f>C46-(256*E46)</f>
-        <v>81</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>4</v>
@@ -1916,15 +1919,15 @@
         <v>220</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="0"/>
-        <v>318</v>
+        <f t="shared" si="1"/>
+        <v>508</v>
       </c>
       <c r="D47" s="1">
-        <f>C47-(256*E47)</f>
-        <v>62</v>
+        <f t="shared" si="3"/>
+        <v>252</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F47" s="9"/>
@@ -1938,15 +1941,15 @@
         <v>233.08</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f t="shared" si="1"/>
+        <v>480</v>
       </c>
       <c r="D48" s="1">
-        <f>C48-(256*E48)</f>
-        <v>44</v>
+        <f t="shared" si="3"/>
+        <v>224</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F48" s="8" t="s">
@@ -1962,15 +1965,15 @@
         <v>246.94</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="0"/>
-        <v>283</v>
+        <f t="shared" si="1"/>
+        <v>453</v>
       </c>
       <c r="D49" s="1">
-        <f>C49-(256*E49)</f>
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>197</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F49" s="10"/>
@@ -1984,15 +1987,15 @@
         <v>261.63</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="0"/>
-        <v>267</v>
+        <f t="shared" si="1"/>
+        <v>428</v>
       </c>
       <c r="D50" s="1">
-        <f>C50-(256*E50)</f>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>172</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F50" s="7"/>
@@ -2006,16 +2009,16 @@
         <v>277.18</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="0"/>
-        <v>252</v>
+        <f t="shared" si="1"/>
+        <v>404</v>
       </c>
       <c r="D51" s="1">
-        <f>C51-(256*E51)</f>
-        <v>252</v>
+        <f t="shared" si="3"/>
+        <v>148</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>4</v>
@@ -2030,16 +2033,16 @@
         <v>293.66000000000003</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="0"/>
-        <v>238</v>
+        <f t="shared" si="1"/>
+        <v>381</v>
       </c>
       <c r="D52" s="1">
-        <f>C52-(256*E52)</f>
-        <v>238</v>
+        <f t="shared" si="3"/>
+        <v>125</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="5"/>
@@ -2052,16 +2055,16 @@
         <v>311.13</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="0"/>
-        <v>225</v>
+        <f t="shared" si="1"/>
+        <v>360</v>
       </c>
       <c r="D53" s="1">
-        <f>C53-(256*E53)</f>
-        <v>225</v>
+        <f t="shared" si="3"/>
+        <v>104</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>4</v>
@@ -2076,16 +2079,16 @@
         <v>329.63</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="0"/>
-        <v>212</v>
+        <f t="shared" si="1"/>
+        <v>339</v>
       </c>
       <c r="D54" s="1">
-        <f>C54-(256*E54)</f>
-        <v>212</v>
+        <f t="shared" si="3"/>
+        <v>83</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="6"/>
@@ -2098,16 +2101,16 @@
         <v>349.23</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>320</v>
       </c>
       <c r="D55" s="1">
-        <f>C55-(256*E55)</f>
-        <v>200</v>
+        <f t="shared" si="3"/>
+        <v>64</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="3"/>
@@ -2120,16 +2123,16 @@
         <v>369.99</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="0"/>
-        <v>189</v>
+        <f t="shared" si="1"/>
+        <v>302</v>
       </c>
       <c r="D56" s="1">
-        <f>C56-(256*E56)</f>
-        <v>189</v>
+        <f t="shared" si="3"/>
+        <v>46</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>4</v>
@@ -2144,16 +2147,16 @@
         <v>392</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="0"/>
-        <v>178</v>
+        <f t="shared" si="1"/>
+        <v>285</v>
       </c>
       <c r="D57" s="1">
-        <f>C57-(256*E57)</f>
-        <v>178</v>
+        <f t="shared" si="3"/>
+        <v>29</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="5"/>
@@ -2166,16 +2169,16 @@
         <v>415.3</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="0"/>
-        <v>168</v>
+        <f t="shared" si="1"/>
+        <v>269</v>
       </c>
       <c r="D58" s="1">
-        <f>C58-(256*E58)</f>
-        <v>168</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>4</v>
@@ -2190,15 +2193,15 @@
         <v>440</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="0"/>
-        <v>159</v>
+        <f t="shared" si="1"/>
+        <v>254</v>
       </c>
       <c r="D59" s="1">
-        <f>C59-(256*E59)</f>
-        <v>159</v>
+        <f t="shared" si="3"/>
+        <v>254</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F59" s="9"/>
@@ -2212,15 +2215,15 @@
         <v>466.16</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>240</v>
       </c>
       <c r="D60" s="1">
-        <f>C60-(256*E60)</f>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>240</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F60" s="8" t="s">
@@ -2236,15 +2239,15 @@
         <v>493.88</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="0"/>
-        <v>142</v>
+        <f t="shared" si="1"/>
+        <v>226</v>
       </c>
       <c r="D61" s="1">
-        <f>C61-(256*E61)</f>
-        <v>142</v>
+        <f t="shared" si="3"/>
+        <v>226</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F61" s="10"/>
@@ -2258,15 +2261,15 @@
         <v>523.25</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="0"/>
-        <v>134</v>
+        <f t="shared" si="1"/>
+        <v>214</v>
       </c>
       <c r="D62" s="1">
-        <f>C62-(256*E62)</f>
-        <v>134</v>
+        <f t="shared" si="3"/>
+        <v>214</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F62" s="7"/>
@@ -2280,15 +2283,15 @@
         <v>554.37</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="0"/>
-        <v>126</v>
+        <f t="shared" si="1"/>
+        <v>202</v>
       </c>
       <c r="D63" s="1">
-        <f>C63-(256*E63)</f>
-        <v>126</v>
+        <f t="shared" si="3"/>
+        <v>202</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F63" s="8" t="s">
@@ -2304,15 +2307,15 @@
         <v>587.33000000000004</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="0"/>
-        <v>119</v>
+        <f t="shared" si="1"/>
+        <v>190</v>
       </c>
       <c r="D64" s="1">
-        <f>C64-(256*E64)</f>
-        <v>119</v>
+        <f t="shared" si="3"/>
+        <v>190</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F64" s="9"/>
@@ -2326,15 +2329,15 @@
         <v>622.25</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="0"/>
-        <v>112</v>
+        <f t="shared" si="1"/>
+        <v>180</v>
       </c>
       <c r="D65" s="1">
-        <f>C65-(256*E65)</f>
-        <v>112</v>
+        <f t="shared" si="3"/>
+        <v>180</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F65" s="8" t="s">
@@ -2350,15 +2353,15 @@
         <v>659.25</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="0"/>
-        <v>106</v>
+        <f t="shared" si="1"/>
+        <v>170</v>
       </c>
       <c r="D66" s="1">
-        <f>C66-(256*E66)</f>
-        <v>106</v>
+        <f t="shared" ref="D66:D97" si="4">C66-(256*E66)</f>
+        <v>170</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F66" s="10"/>
@@ -2372,15 +2375,15 @@
         <v>698.46</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" ref="C67:C109" si="2">ROUND(1118610/(16*B67),0)</f>
-        <v>100</v>
+        <f t="shared" ref="C67:C109" si="5">ROUND((7159090/4/16/B67),0)</f>
+        <v>160</v>
       </c>
       <c r="D67" s="1">
-        <f>C67-(256*E67)</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>160</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" ref="E67:E109" si="3">INT(C67/256)</f>
+        <f t="shared" ref="E67:E109" si="6">INT(C67/256)</f>
         <v>0</v>
       </c>
       <c r="F67" s="7"/>
@@ -2394,15 +2397,15 @@
         <v>739.99</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="2"/>
-        <v>94</v>
+        <f t="shared" si="5"/>
+        <v>151</v>
       </c>
       <c r="D68" s="1">
-        <f>C68-(256*E68)</f>
-        <v>94</v>
+        <f t="shared" si="4"/>
+        <v>151</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F68" s="8" t="s">
@@ -2418,15 +2421,15 @@
         <v>783.99</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="2"/>
-        <v>89</v>
+        <f t="shared" si="5"/>
+        <v>143</v>
       </c>
       <c r="D69" s="1">
-        <f>C69-(256*E69)</f>
-        <v>89</v>
+        <f t="shared" si="4"/>
+        <v>143</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F69" s="9"/>
@@ -2440,15 +2443,15 @@
         <v>830.61</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="2"/>
-        <v>84</v>
+        <f t="shared" si="5"/>
+        <v>135</v>
       </c>
       <c r="D70" s="1">
-        <f>C70-(256*E70)</f>
-        <v>84</v>
+        <f t="shared" si="4"/>
+        <v>135</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F70" s="8" t="s">
@@ -2464,15 +2467,15 @@
         <v>880</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="2"/>
-        <v>79</v>
+        <f t="shared" si="5"/>
+        <v>127</v>
       </c>
       <c r="D71" s="1">
-        <f>C71-(256*E71)</f>
-        <v>79</v>
+        <f t="shared" si="4"/>
+        <v>127</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F71" s="9"/>
@@ -2486,15 +2489,15 @@
         <v>932.33</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="2"/>
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>120</v>
       </c>
       <c r="D72" s="1">
-        <f>C72-(256*E72)</f>
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F72" s="8" t="s">
@@ -2510,15 +2513,15 @@
         <v>987.77</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="2"/>
-        <v>71</v>
+        <f t="shared" si="5"/>
+        <v>113</v>
       </c>
       <c r="D73" s="1">
-        <f>C73-(256*E73)</f>
-        <v>71</v>
+        <f t="shared" si="4"/>
+        <v>113</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F73" s="10"/>
@@ -2532,15 +2535,15 @@
         <v>1046.5</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="2"/>
-        <v>67</v>
+        <f t="shared" si="5"/>
+        <v>107</v>
       </c>
       <c r="D74" s="1">
-        <f>C74-(256*E74)</f>
-        <v>67</v>
+        <f t="shared" si="4"/>
+        <v>107</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F74" s="7"/>
@@ -2554,15 +2557,15 @@
         <v>1108.73</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="2"/>
-        <v>63</v>
+        <f t="shared" si="5"/>
+        <v>101</v>
       </c>
       <c r="D75" s="1">
-        <f>C75-(256*E75)</f>
-        <v>63</v>
+        <f t="shared" si="4"/>
+        <v>101</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F75" s="8" t="s">
@@ -2578,15 +2581,15 @@
         <v>1174.6600000000001</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>95</v>
       </c>
       <c r="D76" s="1">
-        <f>C76-(256*E76)</f>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>95</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F76" s="9"/>
@@ -2600,15 +2603,15 @@
         <v>1244.51</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="2"/>
-        <v>56</v>
+        <f t="shared" si="5"/>
+        <v>90</v>
       </c>
       <c r="D77" s="1">
-        <f>C77-(256*E77)</f>
-        <v>56</v>
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F77" s="8" t="s">
@@ -2624,15 +2627,15 @@
         <v>1318.51</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="2"/>
-        <v>53</v>
+        <f t="shared" si="5"/>
+        <v>85</v>
       </c>
       <c r="D78" s="1">
-        <f>C78-(256*E78)</f>
-        <v>53</v>
+        <f t="shared" si="4"/>
+        <v>85</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F78" s="10"/>
@@ -2646,15 +2649,15 @@
         <v>1396.91</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>80</v>
       </c>
       <c r="D79" s="1">
-        <f>C79-(256*E79)</f>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F79" s="7"/>
@@ -2668,15 +2671,15 @@
         <v>1479.98</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="2"/>
-        <v>47</v>
+        <f t="shared" si="5"/>
+        <v>76</v>
       </c>
       <c r="D80" s="1">
-        <f>C80-(256*E80)</f>
-        <v>47</v>
+        <f t="shared" si="4"/>
+        <v>76</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F80" s="8" t="s">
@@ -2692,15 +2695,15 @@
         <v>1567.98</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="2"/>
-        <v>45</v>
+        <f t="shared" si="5"/>
+        <v>71</v>
       </c>
       <c r="D81" s="1">
-        <f>C81-(256*E81)</f>
-        <v>45</v>
+        <f t="shared" si="4"/>
+        <v>71</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F81" s="9"/>
@@ -2714,15 +2717,15 @@
         <v>1661.22</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="2"/>
-        <v>42</v>
+        <f t="shared" si="5"/>
+        <v>67</v>
       </c>
       <c r="D82" s="1">
-        <f>C82-(256*E82)</f>
-        <v>42</v>
+        <f t="shared" si="4"/>
+        <v>67</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F82" s="8" t="s">
@@ -2738,15 +2741,15 @@
         <v>1760</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>64</v>
       </c>
       <c r="D83" s="1">
-        <f>C83-(256*E83)</f>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>64</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F83" s="9"/>
@@ -2760,15 +2763,15 @@
         <v>1864.66</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="2"/>
-        <v>37</v>
+        <f t="shared" si="5"/>
+        <v>60</v>
       </c>
       <c r="D84" s="1">
-        <f>C84-(256*E84)</f>
-        <v>37</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F84" s="8" t="s">
@@ -2784,15 +2787,15 @@
         <v>1975.53</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f t="shared" si="5"/>
+        <v>57</v>
       </c>
       <c r="D85" s="1">
-        <f>C85-(256*E85)</f>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>57</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F85" s="10"/>
@@ -2806,15 +2809,15 @@
         <v>2093</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="2"/>
-        <v>33</v>
+        <f t="shared" si="5"/>
+        <v>53</v>
       </c>
       <c r="D86" s="1">
-        <f>C86-(256*E86)</f>
-        <v>33</v>
+        <f t="shared" si="4"/>
+        <v>53</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F86" s="7"/>
@@ -2828,15 +2831,15 @@
         <v>2217.46</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="2"/>
-        <v>32</v>
+        <f t="shared" si="5"/>
+        <v>50</v>
       </c>
       <c r="D87" s="1">
-        <f>C87-(256*E87)</f>
-        <v>32</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F87" s="8" t="s">
@@ -2852,15 +2855,15 @@
         <v>2349.3200000000002</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>48</v>
       </c>
       <c r="D88" s="1">
-        <f>C88-(256*E88)</f>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>48</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F88" s="9"/>
@@ -2874,15 +2877,15 @@
         <v>2489.02</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>45</v>
       </c>
       <c r="D89" s="1">
-        <f>C89-(256*E89)</f>
-        <v>28</v>
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F89" s="8" t="s">
@@ -2898,15 +2901,15 @@
         <v>2637.02</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="2"/>
-        <v>27</v>
+        <f t="shared" si="5"/>
+        <v>42</v>
       </c>
       <c r="D90" s="1">
-        <f>C90-(256*E90)</f>
-        <v>27</v>
+        <f t="shared" si="4"/>
+        <v>42</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F90" s="10"/>
@@ -2920,15 +2923,15 @@
         <v>2793.83</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
       <c r="D91" s="1">
-        <f>C91-(256*E91)</f>
-        <v>25</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F91" s="7"/>
@@ -2942,15 +2945,15 @@
         <v>2959.96</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>38</v>
       </c>
       <c r="D92" s="1">
-        <f>C92-(256*E92)</f>
-        <v>24</v>
+        <f t="shared" si="4"/>
+        <v>38</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F92" s="8" t="s">
@@ -2966,15 +2969,15 @@
         <v>3135.96</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>36</v>
       </c>
       <c r="D93" s="1">
-        <f>C93-(256*E93)</f>
-        <v>22</v>
+        <f t="shared" si="4"/>
+        <v>36</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F93" s="9"/>
@@ -2988,15 +2991,15 @@
         <v>3322.44</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>34</v>
       </c>
       <c r="D94" s="1">
-        <f>C94-(256*E94)</f>
-        <v>21</v>
+        <f t="shared" si="4"/>
+        <v>34</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F94" s="8" t="s">
@@ -3012,15 +3015,15 @@
         <v>3520</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>32</v>
       </c>
       <c r="D95" s="1">
-        <f>C95-(256*E95)</f>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>32</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F95" s="9"/>
@@ -3034,15 +3037,15 @@
         <v>3729.31</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>30</v>
       </c>
       <c r="D96" s="1">
-        <f>C96-(256*E96)</f>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F96" s="8" t="s">
@@ -3058,15 +3061,15 @@
         <v>3951.07</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>28</v>
       </c>
       <c r="D97" s="1">
-        <f>C97-(256*E97)</f>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>28</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F97" s="10"/>
@@ -3080,15 +3083,15 @@
         <v>4186.01</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
       <c r="D98" s="1">
-        <f>C98-(256*E98)</f>
-        <v>17</v>
+        <f t="shared" ref="D98:D129" si="7">C98-(256*E98)</f>
+        <v>27</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F98" s="7"/>
@@ -3102,15 +3105,15 @@
         <v>4434.92</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="D99" s="1">
-        <f>C99-(256*E99)</f>
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>25</v>
       </c>
       <c r="E99" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F99" s="8" t="s">
@@ -3126,15 +3129,15 @@
         <v>4698.63</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
       <c r="D100" s="1">
-        <f>C100-(256*E100)</f>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>24</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F100" s="9"/>
@@ -3148,15 +3151,15 @@
         <v>4978.03</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
       <c r="D101" s="1">
-        <f>C101-(256*E101)</f>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>22</v>
       </c>
       <c r="E101" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F101" s="8" t="s">
@@ -3172,15 +3175,15 @@
         <v>5274.04</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="D102" s="1">
-        <f>C102-(256*E102)</f>
-        <v>13</v>
+        <f t="shared" si="7"/>
+        <v>21</v>
       </c>
       <c r="E102" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F102" s="10"/>
@@ -3194,15 +3197,15 @@
         <v>5587.65</v>
       </c>
       <c r="C103" s="1">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="D103" s="1">
-        <f>C103-(256*E103)</f>
-        <v>13</v>
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
       <c r="E103" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F103" s="7"/>
@@ -3216,15 +3219,15 @@
         <v>5919.91</v>
       </c>
       <c r="C104" s="1">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="D104" s="1">
-        <f>C104-(256*E104)</f>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>19</v>
       </c>
       <c r="E104" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F104" s="8" t="s">
@@ -3240,15 +3243,15 @@
         <v>6271.93</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="D105" s="1">
-        <f>C105-(256*E105)</f>
-        <v>11</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F105" s="9"/>
@@ -3262,15 +3265,15 @@
         <v>6644.88</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
       <c r="D106" s="1">
-        <f>C106-(256*E106)</f>
-        <v>11</v>
+        <f t="shared" si="7"/>
+        <v>17</v>
       </c>
       <c r="E106" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F106" s="8" t="s">
@@ -3286,15 +3289,15 @@
         <v>7040</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="D107" s="1">
-        <f>C107-(256*E107)</f>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
       <c r="E107" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F107" s="9"/>
@@ -3308,15 +3311,15 @@
         <v>7458.62</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="D108" s="1">
-        <f>C108-(256*E108)</f>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="E108" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F108" s="8" t="s">
@@ -3332,15 +3335,15 @@
         <v>7902.13</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="D109" s="1">
-        <f>C109-(256*E109)</f>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
       <c r="E109" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F109" s="10"/>
